--- a/1_data/var_list_data_master_250813.xlsx
+++ b/1_data/var_list_data_master_250813.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\updates\Box\SGPP-Osorio\NSF_UNdata\_papers\imp_paper\1_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\updates\Box\SGPP-Osorio\NSF_UNdata\_papers\ipm\ipm_paper\1_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E504B7BD-3391-4ED2-BAC7-A8B0F9528A8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D3D6BCE-C4F6-4DAB-A9CC-EF80F6D63499}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="57630" yWindow="-5580" windowWidth="16500" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="136">
   <si>
     <t>num</t>
   </si>
@@ -438,6 +438,9 @@
   </si>
   <si>
     <t>AR Native</t>
+  </si>
+  <si>
+    <t>Prediction score for correct relevant classification</t>
   </si>
 </sst>
 </file>
@@ -790,9 +793,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D39" sqref="D39:F41"/>
+      <selection pane="bottomLeft" activeCell="F46" sqref="F46:F54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1718,7 +1721,7 @@
         <v>107</v>
       </c>
       <c r="F45" t="s">
-        <v>104</v>
+        <v>135</v>
       </c>
       <c r="G45">
         <v>44</v>
@@ -1741,7 +1744,7 @@
         <v>108</v>
       </c>
       <c r="F46" t="s">
-        <v>104</v>
+        <v>135</v>
       </c>
       <c r="G46">
         <v>45</v>
@@ -1764,7 +1767,7 @@
         <v>107</v>
       </c>
       <c r="F47" t="s">
-        <v>104</v>
+        <v>135</v>
       </c>
       <c r="G47">
         <v>46</v>
@@ -1787,7 +1790,7 @@
         <v>108</v>
       </c>
       <c r="F48" t="s">
-        <v>104</v>
+        <v>135</v>
       </c>
       <c r="G48">
         <v>47</v>
@@ -1810,7 +1813,7 @@
         <v>107</v>
       </c>
       <c r="F49" t="s">
-        <v>104</v>
+        <v>135</v>
       </c>
       <c r="G49">
         <v>48</v>
@@ -1833,7 +1836,7 @@
         <v>108</v>
       </c>
       <c r="F50" t="s">
-        <v>104</v>
+        <v>135</v>
       </c>
       <c r="G50">
         <v>49</v>
@@ -1856,7 +1859,7 @@
         <v>110</v>
       </c>
       <c r="F51" t="s">
-        <v>104</v>
+        <v>135</v>
       </c>
       <c r="G51">
         <v>50</v>
@@ -1879,7 +1882,7 @@
         <v>107</v>
       </c>
       <c r="F52" t="s">
-        <v>104</v>
+        <v>135</v>
       </c>
       <c r="G52">
         <v>51</v>
@@ -1902,7 +1905,7 @@
         <v>108</v>
       </c>
       <c r="F53" t="s">
-        <v>104</v>
+        <v>135</v>
       </c>
       <c r="G53">
         <v>52</v>
@@ -1925,7 +1928,7 @@
         <v>110</v>
       </c>
       <c r="F54" t="s">
-        <v>104</v>
+        <v>135</v>
       </c>
       <c r="G54">
         <v>53</v>
